--- a/input/template-day3.xlsx
+++ b/input/template-day3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukikenichi/Sourcetree/plot-graph/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A2263868-06AA-0748-8418-A17D9C1EBF25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D957D4AB-D57B-E545-B4D2-0C0006FED9A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D8FD9CB6-66BA-8A4E-B218-C52F5C398E1D}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
